--- a/medicine/Enfance/Thea_Beckman/Thea_Beckman.xlsx
+++ b/medicine/Enfance/Thea_Beckman/Thea_Beckman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Théa Beckmann-Petie, connue sous le pseudonyme de Thea Beckman, née le 23 juillet 1923 à Rotterdam et morte le 5 mai 2004 à Bunnik, est une écrivaine néerlandaise de littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Thea Beckman naît le 23 juillet 1923 à Rotterdam. Dès le plus âge, elle sait qu'elle veut devenir écrivaine. Adolescente, elle écrit des histoires et des morceaux de musique. Elle étudie la psychologie sociale à l'Université d'Utrecht.
 Elle a écrit plusieurs romans dont le plus connu, Kruistocht in spijkerbroek, (en anglais Crusade in jeans), qui s'inspire de la croisade des enfants de 1212,a obtenu le prix Gouden Griffel. Ce roman a été adapté dans un film en 2006. Sa trilogie enfants de la terre-mère a également eu du succès.
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Kruistocht in spijkerbroek (Crusade in jeans)
 Enfants de la Terre-mère (trilogie)</t>
